--- a/Trump_Data.xlsx
+++ b/Trump_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\Users\Cameron\teaching\ENGSCI355\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uoa.auckland.ac.nz\engdfs\Home\ssun684\Downloads\355\project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="historical data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Yellow</t>
   </si>
@@ -64,6 +63,39 @@
   </si>
   <si>
     <t>Night</t>
+  </si>
+  <si>
+    <t>AVG. DAY</t>
+  </si>
+  <si>
+    <t>AVG. EVENING</t>
+  </si>
+  <si>
+    <t>AVG. NIGHT</t>
+  </si>
+  <si>
+    <t>AVG. Day</t>
+  </si>
+  <si>
+    <t>AVG. Sun</t>
+  </si>
+  <si>
+    <t>AVG. Mon</t>
+  </si>
+  <si>
+    <t>AVG. Tue</t>
+  </si>
+  <si>
+    <t>AVG. Wed</t>
+  </si>
+  <si>
+    <t>AVG. Thu</t>
+  </si>
+  <si>
+    <t>AVG. Fri</t>
+  </si>
+  <si>
+    <t>AVG. Sat</t>
   </si>
 </sst>
 </file>
@@ -435,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,11 +480,18 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
     <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,7 +516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -492,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -520,8 +559,23 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,8 +601,35 @@
         <f>SUM(B2:D2)</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41840</v>
       </c>
@@ -583,11 +664,38 @@
         <v>96</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" ref="K7:K70" si="0">TEXT(WEEKDAY(A7),"ddd")</f>
+        <f t="shared" ref="K7:M70" si="0">TEXT(WEEKDAY(A7),"ddd")</f>
         <v>Sun</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>13.704761904761904</v>
+      </c>
+      <c r="O7">
+        <v>8.4666666666666668</v>
+      </c>
+      <c r="P7">
+        <v>5.8476190476190473</v>
+      </c>
+      <c r="Q7">
+        <v>11.057142857142857</v>
+      </c>
+      <c r="R7">
+        <v>17.047619047619047</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>97.38095238095238</v>
+      </c>
+      <c r="U7">
+        <v>88.8</v>
+      </c>
+      <c r="V7">
+        <v>94.647619047619045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>41841</v>
       </c>
@@ -626,7 +734,7 @@
         <v>Mon</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>41842</v>
       </c>
@@ -665,7 +773,7 @@
         <v>Tue</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>41843</v>
       </c>
@@ -703,8 +811,14 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>41844</v>
       </c>
@@ -742,8 +856,55 @@
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <f>AVERAGE(B7,B14,B21,B28,B35,B42,B49,B56,B63,B70,B77,B84,B91,B98,B105)</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:V11" si="3">AVERAGE(C7,C14,C21,C28,C35,C42,C49,C56,C63,C70,C77,C84,C91,C98,C105)</f>
+        <v>6.8666666666666663</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>5.8</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>14.733333333333333</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>96.2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>94.13333333333334</v>
+      </c>
+      <c r="X11">
+        <f>SUM(N11:P11)</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="Y11">
+        <f>SUM(Q11:S11)</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>41845</v>
       </c>
@@ -781,8 +942,55 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(B8,B15,B22,B29,B36,B43,B50,B57,B64,B71,B78,B85,B92,B99,B106)</f>
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:V12" si="4">AVERAGE(C8,C15,C22,C29,C36,C43,C50,C57,C64,C71,C78,C85,C92,C99,C106)</f>
+        <v>9.4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>11.066666666666666</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>100.06666666666666</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>90.13333333333334</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
+        <v>96.13333333333334</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12:X17" si="5">SUM(N12:P12)</f>
+        <v>32.4</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12:Y17" si="6">SUM(Q12:S12)</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>41846</v>
       </c>
@@ -820,8 +1028,55 @@
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N17" si="7">AVERAGE(B9,B16,B23,B30,B37,B44,B51,B58,B65,B72,B79,B86,B93,B100,B107)</f>
+        <v>16.133333333333333</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O17" si="8">AVERAGE(C9,C16,C23,C30,C37,C44,C51,C58,C65,C72,C79,C86,C93,C100,C107)</f>
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P17" si="9">AVERAGE(D9,D16,D23,D30,D37,D44,D51,D58,D65,D72,D79,D86,D93,D100,D107)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q17" si="10">AVERAGE(E9,E16,E23,E30,E37,E44,E51,E58,E65,E72,E79,E86,E93,E100,E107)</f>
+        <v>12.2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R17" si="11">AVERAGE(F9,F16,F23,F30,F37,F44,F51,F58,F65,F72,F79,F86,F93,F100,F107)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S17" si="12">AVERAGE(G9,G16,G23,G30,G37,G44,G51,G58,G65,G72,G79,G86,G93,G100,G107)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13:T17" si="13">AVERAGE(H9,H16,H23,H30,H37,H44,H51,H58,H65,H72,H79,H86,H93,H100,H107)</f>
+        <v>100.06666666666666</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:U17" si="14">AVERAGE(I9,I16,I23,I30,I37,I44,I51,I58,I65,I72,I79,I86,I93,I100,I107)</f>
+        <v>89.733333333333334</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13:V17" si="15">AVERAGE(J9,J16,J23,J30,J37,J44,J51,J58,J65,J72,J79,J86,J93,J100,J107)</f>
+        <v>96.066666666666663</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="5"/>
+        <v>30.533333333333331</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="6"/>
+        <v>30.599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>41847</v>
       </c>
@@ -859,8 +1114,55 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>12.933333333333334</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>10.466666666666667</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="10"/>
+        <v>11.866666666666667</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="13"/>
+        <v>97.13333333333334</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="15"/>
+        <v>94.733333333333334</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="5"/>
+        <v>29.133333333333333</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>30.466666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>41848</v>
       </c>
@@ -898,8 +1200,55 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>14.533333333333333</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>8.7333333333333325</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>5.8</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="10"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="11"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="13"/>
+        <v>96.933333333333337</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="14"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="15"/>
+        <v>94.13333333333334</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>29.066666666666666</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>29.666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>41849</v>
       </c>
@@ -937,8 +1286,55 @@
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>8.7333333333333325</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>11.733333333333333</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="11"/>
+        <v>18.2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="13"/>
+        <v>97.733333333333334</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="14"/>
+        <v>88.266666666666666</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="15"/>
+        <v>93.733333333333334</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>29.533333333333331</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>29.93333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>41850</v>
       </c>
@@ -976,8 +1372,55 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>5.8</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="10"/>
+        <v>10.533333333333333</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="11"/>
+        <v>12.733333333333333</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="13"/>
+        <v>93.533333333333331</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="14"/>
+        <v>87.8</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="15"/>
+        <v>93.6</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="5"/>
+        <v>23.133333333333336</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>23.266666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>41851</v>
       </c>
@@ -1016,7 +1459,7 @@
         <v>Thu</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>41852</v>
       </c>
@@ -1055,7 +1498,7 @@
         <v>Fri</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>41853</v>
       </c>
@@ -1094,7 +1537,7 @@
         <v>Sat</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>41854</v>
       </c>
@@ -1133,7 +1576,7 @@
         <v>Sun</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>41855</v>
       </c>
@@ -1172,7 +1615,7 @@
         <v>Mon</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>41856</v>
       </c>
@@ -1211,7 +1654,7 @@
         <v>Tue</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>41857</v>
       </c>
@@ -1250,7 +1693,7 @@
         <v>Wed</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>41858</v>
       </c>
@@ -1277,11 +1720,11 @@
         <v>93</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:J40" si="3">H25+C25-F25</f>
+        <f t="shared" ref="I25:J40" si="16">H25+C25-F25</f>
         <v>90</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="K25" t="str">
@@ -1289,7 +1732,7 @@
         <v>Thu</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>41859</v>
       </c>
@@ -1316,11 +1759,11 @@
         <v>95</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>92</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="K26" t="str">
@@ -1328,7 +1771,7 @@
         <v>Fri</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>41860</v>
       </c>
@@ -1355,11 +1798,11 @@
         <v>93</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>84</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>91</v>
       </c>
       <c r="K27" t="str">
@@ -1367,7 +1810,7 @@
         <v>Sat</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>41861</v>
       </c>
@@ -1394,11 +1837,11 @@
         <v>91</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>89</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>95</v>
       </c>
       <c r="K28" t="str">
@@ -1406,7 +1849,7 @@
         <v>Sun</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>41862</v>
       </c>
@@ -1433,11 +1876,11 @@
         <v>91</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>87</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>92</v>
       </c>
       <c r="K29" t="str">
@@ -1445,7 +1888,7 @@
         <v>Mon</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>41863</v>
       </c>
@@ -1472,11 +1915,11 @@
         <v>100</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="K30" t="str">
@@ -1484,7 +1927,7 @@
         <v>Tue</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>41864</v>
       </c>
@@ -1511,11 +1954,11 @@
         <v>94</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="K31" t="str">
@@ -1523,7 +1966,7 @@
         <v>Wed</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>41865</v>
       </c>
@@ -1550,11 +1993,11 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>84</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>89</v>
       </c>
       <c r="K32" t="str">
@@ -1589,11 +2032,11 @@
         <v>97</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="K33" t="str">
@@ -1628,11 +2071,11 @@
         <v>93</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="K34" t="str">
@@ -1667,11 +2110,11 @@
         <v>94</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="K35" t="str">
@@ -1706,11 +2149,11 @@
         <v>104</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>101</v>
       </c>
       <c r="K36" t="str">
@@ -1745,11 +2188,11 @@
         <v>111</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>91</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="K37" t="str">
@@ -1784,11 +2227,11 @@
         <v>100</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="K38" t="str">
@@ -1823,11 +2266,11 @@
         <v>96</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="K39" t="str">
@@ -1862,11 +2305,11 @@
         <v>105</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>87</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>89</v>
       </c>
       <c r="K40" t="str">
@@ -1901,11 +2344,11 @@
         <v>88</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:J56" si="4">H41+C41-F41</f>
+        <f t="shared" ref="I41:J56" si="17">H41+C41-F41</f>
         <v>84</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
       <c r="K41" t="str">
@@ -1940,11 +2383,11 @@
         <v>86</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>87</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
       <c r="K42" t="str">
@@ -1979,11 +2422,11 @@
         <v>95</v>
       </c>
       <c r="I43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="K43" t="str">
@@ -2018,11 +2461,11 @@
         <v>96</v>
       </c>
       <c r="I44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>91</v>
       </c>
       <c r="K44" t="str">
@@ -2057,11 +2500,11 @@
         <v>86</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>83</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>91</v>
       </c>
       <c r="K45" t="str">
@@ -2096,11 +2539,11 @@
         <v>88</v>
       </c>
       <c r="I46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>86</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="K46" t="str">
@@ -2135,11 +2578,11 @@
         <v>101</v>
       </c>
       <c r="I47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>88</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>92</v>
       </c>
       <c r="K47" t="str">
@@ -2174,11 +2617,11 @@
         <v>91</v>
       </c>
       <c r="I48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>92</v>
       </c>
       <c r="K48" t="str">
@@ -2213,11 +2656,11 @@
         <v>94</v>
       </c>
       <c r="I49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="K49" t="str">
@@ -2252,11 +2695,11 @@
         <v>99</v>
       </c>
       <c r="I50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>87</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>92</v>
       </c>
       <c r="K50" t="str">
@@ -2291,11 +2734,11 @@
         <v>103</v>
       </c>
       <c r="I51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>99</v>
       </c>
       <c r="K51" t="str">
@@ -2330,11 +2773,11 @@
         <v>103</v>
       </c>
       <c r="I52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="K52" t="str">
@@ -2369,11 +2812,11 @@
         <v>97</v>
       </c>
       <c r="I53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>92</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>98</v>
       </c>
       <c r="K53" t="str">
@@ -2408,11 +2851,11 @@
         <v>102</v>
       </c>
       <c r="I54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>86</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="K54" t="str">
@@ -2447,11 +2890,11 @@
         <v>92</v>
       </c>
       <c r="I55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>91</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="K55" t="str">
@@ -2486,11 +2929,11 @@
         <v>100</v>
       </c>
       <c r="I56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="K56" t="str">
@@ -2525,11 +2968,11 @@
         <v>98</v>
       </c>
       <c r="I57">
-        <f t="shared" ref="I57:J111" si="5">H57+C57-F57</f>
+        <f t="shared" ref="I57:J111" si="18">H57+C57-F57</f>
         <v>88</v>
       </c>
       <c r="J57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K57" t="str">
@@ -2564,11 +3007,11 @@
         <v>99</v>
       </c>
       <c r="I58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="J58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="K58" t="str">
@@ -2603,11 +3046,11 @@
         <v>99</v>
       </c>
       <c r="I59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="J59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="K59" t="str">
@@ -2642,11 +3085,11 @@
         <v>98</v>
       </c>
       <c r="I60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K60" t="str">
@@ -2681,11 +3124,11 @@
         <v>97</v>
       </c>
       <c r="I61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="J61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="K61" t="str">
@@ -2720,11 +3163,11 @@
         <v>99</v>
       </c>
       <c r="I62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="J62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="K62" t="str">
@@ -2759,11 +3202,11 @@
         <v>100</v>
       </c>
       <c r="I63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="J63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="K63" t="str">
@@ -2798,11 +3241,11 @@
         <v>102</v>
       </c>
       <c r="I64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="J64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K64" t="str">
@@ -2837,11 +3280,11 @@
         <v>102</v>
       </c>
       <c r="I65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="J65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K65" t="str">
@@ -2876,11 +3319,11 @@
         <v>99</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="J66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K66" t="str">
@@ -2915,11 +3358,11 @@
         <v>99</v>
       </c>
       <c r="I67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>86</v>
       </c>
       <c r="J67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="K67" t="str">
@@ -2954,11 +3397,11 @@
         <v>96</v>
       </c>
       <c r="I68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K68" t="str">
@@ -2993,11 +3436,11 @@
         <v>102</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="K69" t="str">
@@ -3032,11 +3475,11 @@
         <v>98</v>
       </c>
       <c r="I70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="K70" t="str">
@@ -3071,15 +3514,15 @@
         <v>99</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" ref="K71:K111" si="6">TEXT(WEEKDAY(A71),"ddd")</f>
+        <f t="shared" ref="K71:K111" si="19">TEXT(WEEKDAY(A71),"ddd")</f>
         <v>Mon</v>
       </c>
     </row>
@@ -3110,15 +3553,15 @@
         <v>98</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Tue</v>
       </c>
     </row>
@@ -3145,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H111" si="7">J72+B73-E73</f>
+        <f t="shared" ref="H73:H111" si="20">J72+B73-E73</f>
         <v>99</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Wed</v>
       </c>
     </row>
@@ -3184,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>97</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Thu</v>
       </c>
     </row>
@@ -3223,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>93</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Fri</v>
       </c>
     </row>
@@ -3262,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
     </row>
@@ -3301,19 +3744,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>104</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sun</v>
       </c>
     </row>
@@ -3340,19 +3783,19 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>102</v>
       </c>
       <c r="I78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Mon</v>
       </c>
     </row>
@@ -3379,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>94</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Tue</v>
       </c>
     </row>
@@ -3418,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Wed</v>
       </c>
     </row>
@@ -3457,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Thu</v>
       </c>
     </row>
@@ -3496,19 +3939,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>94</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Fri</v>
       </c>
     </row>
@@ -3535,19 +3978,19 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
     </row>
@@ -3574,19 +4017,19 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>104</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sun</v>
       </c>
     </row>
@@ -3613,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Mon</v>
       </c>
     </row>
@@ -3652,19 +4095,19 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Tue</v>
       </c>
     </row>
@@ -3691,19 +4134,19 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>86</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Wed</v>
       </c>
     </row>
@@ -3730,19 +4173,19 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="I88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Thu</v>
       </c>
     </row>
@@ -3769,19 +4212,19 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>92</v>
       </c>
       <c r="I89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Fri</v>
       </c>
     </row>
@@ -3808,19 +4251,19 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="I90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>99</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
     </row>
@@ -3847,19 +4290,19 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="I91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sun</v>
       </c>
     </row>
@@ -3886,19 +4329,19 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>106</v>
       </c>
       <c r="I92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Mon</v>
       </c>
     </row>
@@ -3925,19 +4368,19 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="I93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Tue</v>
       </c>
     </row>
@@ -3964,19 +4407,19 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
       <c r="I94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Wed</v>
       </c>
     </row>
@@ -4003,19 +4446,19 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="I95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>93</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Thu</v>
       </c>
     </row>
@@ -4042,19 +4485,19 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>91</v>
       </c>
       <c r="I96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>86</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Fri</v>
       </c>
     </row>
@@ -4081,19 +4524,19 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="I97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
     </row>
@@ -4120,19 +4563,19 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>97</v>
       </c>
       <c r="I98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sun</v>
       </c>
     </row>
@@ -4159,19 +4602,19 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>99</v>
       </c>
       <c r="I99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Mon</v>
       </c>
     </row>
@@ -4198,19 +4641,19 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>101</v>
       </c>
       <c r="I100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Tue</v>
       </c>
     </row>
@@ -4237,19 +4680,19 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="I101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Wed</v>
       </c>
     </row>
@@ -4276,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="I102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Thu</v>
       </c>
     </row>
@@ -4315,19 +4758,19 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="I103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Fri</v>
       </c>
     </row>
@@ -4354,19 +4797,19 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>91</v>
       </c>
       <c r="I104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
     </row>
@@ -4393,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>93</v>
       </c>
       <c r="I105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sun</v>
       </c>
     </row>
@@ -4432,19 +4875,19 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="I106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Mon</v>
       </c>
     </row>
@@ -4471,19 +4914,19 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>101</v>
       </c>
       <c r="I107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Tue</v>
       </c>
     </row>
@@ -4510,19 +4953,19 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>104</v>
       </c>
       <c r="I108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Wed</v>
       </c>
     </row>
@@ -4549,19 +4992,19 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
       <c r="I109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Thu</v>
       </c>
     </row>
@@ -4588,19 +5031,19 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="I110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>91</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>94</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Fri</v>
       </c>
     </row>
@@ -4627,25 +5070,66 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>85</v>
       </c>
       <c r="I111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>83</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
     </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f>AVERAGE(B7:B111)</f>
+        <v>13.704761904761904</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ref="C113:J113" si="21">AVERAGE(C7:C111)</f>
+        <v>8.4666666666666668</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="21"/>
+        <v>5.8476190476190473</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="21"/>
+        <v>11.057142857142857</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="21"/>
+        <v>17.047619047619047</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f>AVERAGE(H7:H111)</f>
+        <v>97.38095238095238</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="21"/>
+        <v>88.8</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="21"/>
+        <v>94.647619047619045</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
